--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NELSON K. CHAN\Google Drive\My Documents\Oregon State University\CS 340 Intro to Databases\Group 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A41D86E-5564-4865-A5EC-5B9771BDD63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD42A4B-8894-4D4F-96B1-B5AE575BF648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{535123E1-B282-4026-BBB3-142D2E158CD6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>customer_id</t>
   </si>
@@ -90,9 +90,6 @@
     <t>order_status</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
     <t>recipe_id</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>date_rated</t>
-  </si>
-  <si>
-    <t>recipe</t>
   </si>
   <si>
     <t>Addresses</t>
@@ -621,7 +615,7 @@
     <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -656,7 +650,7 @@
     <row r="5" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -679,19 +673,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="10" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -722,7 +716,7 @@
     <row r="13" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -751,7 +745,7 @@
     <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="18" spans="2:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -761,25 +755,25 @@
     </row>
     <row r="19" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="22" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -788,31 +782,31 @@
     </row>
     <row r="23" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>

--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NELSON K. CHAN\Google Drive\My Documents\Oregon State University\CS 340 Intro to Databases\Group 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NELSON K. CHAN\Google Drive\My Documents\Oregon State University\CS 340 Intro to Databases\Group 11\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD42A4B-8894-4D4F-96B1-B5AE575BF648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF880368-7935-4049-94AF-02951048F3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{535123E1-B282-4026-BBB3-142D2E158CD6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>customer_id</t>
   </si>
@@ -48,36 +48,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>address_id</t>
-  </si>
-  <si>
-    <t>payment_id</t>
-  </si>
-  <si>
-    <t>street_1</t>
-  </si>
-  <si>
-    <t>street_2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>card_num</t>
-  </si>
-  <si>
-    <t>exp_date</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
     <t>order_id</t>
   </si>
   <si>
@@ -99,9 +69,6 @@
     <t>difficulty</t>
   </si>
   <si>
-    <t>directions</t>
-  </si>
-  <si>
     <t>rating_id</t>
   </si>
   <si>
@@ -111,18 +78,12 @@
     <t>date_rated</t>
   </si>
   <si>
-    <t>Addresses</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
     <t>Orders</t>
   </si>
   <si>
-    <t>Payment_Informations</t>
-  </si>
-  <si>
     <t>Recipes</t>
   </si>
   <si>
@@ -139,6 +100,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>ingredients</t>
   </si>
 </sst>
 </file>
@@ -601,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4500C5BF-84EF-424F-8B7F-4B513E629A6A}">
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -613,9 +577,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -624,202 +588,136 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="10" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="13" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15"/>
-    </row>
-    <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" spans="2:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B22:F22"/>
+  <mergeCells count="4">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NELSON K. CHAN\Google Drive\My Documents\Oregon State University\CS 340 Intro to Databases\Group 11\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessm\Documents\OSU\CS340 - Databases\CS340_W2020_group11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF880368-7935-4049-94AF-02951048F3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C569A717-7984-4A11-AEA5-A04893CF6F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{535123E1-B282-4026-BBB3-142D2E158CD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{535123E1-B282-4026-BBB3-142D2E158CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>customer_id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>ingredients</t>
+  </si>
+  <si>
+    <t>item_number</t>
   </si>
 </sst>
 </file>
@@ -568,16 +571,16 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5625" defaultRowHeight="13.15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.5625" style="1"/>
+    <col min="1" max="16384" width="15.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
@@ -588,7 +591,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -611,8 +614,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -623,7 +626,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -642,8 +645,8 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="9" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -653,7 +656,7 @@
       <c r="F10" s="8"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -670,8 +673,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
@@ -680,7 +683,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
@@ -697,19 +700,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
